--- a/example/DoesCal_initial.xlsx
+++ b/example/DoesCal_initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyizhu/Packages/DoesCal/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B573610-82C2-084D-8A1C-6E657B705697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D912A1BF-C8E0-884D-918C-0098D58C5DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>pps</t>
   </si>
   <si>
-    <t>g/atoms</t>
-  </si>
-  <si>
     <t>Running Time</t>
   </si>
   <si>
     <t>sec</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,16 +672,16 @@
         <v>4.4819767441860458E-23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="5">
         <v>3600</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
